--- a/SpecialHomepage Test Cases _ Cypress.xlsx
+++ b/SpecialHomepage Test Cases _ Cypress.xlsx
@@ -1250,134 +1250,134 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:9" s="7" customFormat="1" ht="38.25">
+    <row r="13" spans="2:9" s="7" customFormat="1" ht="25.5">
       <c r="B13" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:9" s="7" customFormat="1" ht="51">
+    <row r="14" spans="2:9" s="7" customFormat="1" ht="25.5">
       <c r="B14" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="2:9" s="7" customFormat="1" ht="38.25">
+    <row r="15" spans="2:9" s="7" customFormat="1" ht="25.5">
       <c r="B15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" s="7" customFormat="1" ht="25.5">
+    <row r="16" spans="2:9" s="7" customFormat="1" ht="38.25">
       <c r="B16" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:9" s="7" customFormat="1" ht="25.5">
+    <row r="17" spans="2:9" s="7" customFormat="1" ht="51">
       <c r="B17" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" s="7" customFormat="1" ht="25.5">
+    <row r="18" spans="2:9" s="7" customFormat="1" ht="38.25">
       <c r="B18" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>16</v>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>16</v>
@@ -1410,14 +1410,14 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>16</v>
